--- a/biology/Zoologie/Fidicina_mannifera/Fidicina_mannifera.xlsx
+++ b/biology/Zoologie/Fidicina_mannifera/Fidicina_mannifera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fidicina mannifera est une espèce d'insectes hémiptères de la famille des Cicadidae (cigales), de la sous-famille des Cicadinae, de la tribu des Fidicinini (Distant, 1905), sous-tribu des Fidicinina (Boulard &amp; Martinelli, 1996) et du genre Fidicina.
 </t>
@@ -511,15 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Espèce décrite par l'entomologiste danois Johan Christian Fabricius en 1803, sous le nom de Teltigonia mannifera[1]. Le nom de référence est Fidicina mannifera.
-Synonymie
-Teltigonia mannifera (Fabricius, 1803)
-Cicada mannifera[2]
-Noms vernaculaires
-Fidicine porte-manne
-Cigale vielleuse[3]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Espèce décrite par l'entomologiste danois Johan Christian Fabricius en 1803, sous le nom de Teltigonia mannifera. Le nom de référence est Fidicina mannifera.</t>
         </is>
       </c>
     </row>
@@ -544,18 +552,128 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Teltigonia mannifera (Fabricius, 1803)
+Cicada mannifera</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fidicina_mannifera</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fidicina_mannifera</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fidicine porte-manne
+Cigale vielleuse</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fidicina_mannifera</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fidicina_mannifera</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tête très large et très courte. Front ayant un sillon longitudinal au milieu.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Tête très large et très courte. Front ayant un sillon longitudinal au milieu.
 Yeux : gros et ovalaires, pédonculés, très saillants. Prothorax: non dilaté de chaque côté en dehors des yeux.
 Mésothorax échancré en demi-lune ou en croissant postérieurement.
 Élytres et ailes transparentes, leurs nervures plus ou moins tachées de brun.
-Opercules des mâles assez peu développés. Tarses de deux articles seulement, le premier très petit[4].
-Particularités pour cette espèce
-Tête et prothorax verts; mésothorax varié de noir, profondément échancré en demi-lune postérieurement, les pointes du croissant saillantes en épine. Élytres et ailes hyalines; leurs nervures nuancées de brun vers l'extrémité.
+Opercules des mâles assez peu développés. Tarses de deux articles seulement, le premier très petit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fidicina_mannifera</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fidicina_mannifera</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Particularités pour cette espèce</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tête et prothorax verts; mésothorax varié de noir, profondément échancré en demi-lune postérieurement, les pointes du croissant saillantes en épine. Élytres et ailes hyalines; leurs nervures nuancées de brun vers l'extrémité.
 </t>
         </is>
       </c>
